--- a/Matrikel for Kompagniets kvarter/Point12&14&20&21/Point12_21_2.xlsx
+++ b/Matrikel for Kompagniets kvarter/Point12&14&20&21/Point12_21_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikl\Desktop\Quarter på Sanct Croix\Matrikel for Kompagniets kvarter\Point12&amp;14&amp;20&amp;21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E670D1-9E22-42B5-8891-CF426140CB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CCD658-53AE-4D05-B8D2-938F3083E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D0D44B6-1B11-493D-9520-524BE79910C9}"/>
   </bookViews>
@@ -281,7 +281,7 @@
     <t>ditto 5    20</t>
   </si>
   <si>
-    <t>of white Inhabitants and Negroes on Estate Catharina Reest in Comp: quarter No. 12. 14. 20 &amp;. 21 belonging to the Heies of C: De Nully Deceased</t>
+    <t>of white Inhabitants and Negroes on Estate Catharina Reest in Comp: quarter No. 12. 14. 20 &amp;. 21 belonging to the Heires of C: De Nully Deceased</t>
   </si>
 </sst>
 </file>
@@ -494,58 +494,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94C6ACA-420D-4DD7-81AD-57D73DBB0026}">
   <dimension ref="C3:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35:O42"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -906,822 +906,850 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="36">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="3:15" ht="72" customHeight="1">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="3:15" ht="36">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="3:15" ht="36">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="3:15" ht="36">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="3:15" ht="108">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="3:15" ht="36">
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="3:15" ht="72">
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="3:15" ht="36">
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3">
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="2">
         <v>4</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="3:15" ht="72">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="3:15" ht="36">
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>6</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="3:15" ht="36">
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="3:15" ht="36">
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3">
+      <c r="E15" s="3"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="3:15" ht="36">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="2" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="3:15" ht="36">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="2" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="3:15" ht="36">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="3:15" ht="36" customHeight="1">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="2" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20" spans="3:15" ht="36" customHeight="1">
-      <c r="C20" s="2"/>
-      <c r="D20" s="3">
+      <c r="C20" s="18"/>
+      <c r="D20" s="2">
         <v>13</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="2" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
     </row>
     <row r="21" spans="3:15" ht="36" customHeight="1">
-      <c r="C21" s="2"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="2" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
     </row>
     <row r="22" spans="3:15" ht="36">
-      <c r="C22" s="2"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="2" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="3:15" ht="36">
-      <c r="C23" s="2"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="7" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="2" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="3:15" ht="36">
-      <c r="C24" s="2"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="7" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="2" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="3:15" ht="36" customHeight="1">
-      <c r="C25" s="2"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="2" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
     </row>
     <row r="26" spans="3:15" ht="36" customHeight="1">
-      <c r="C26" s="2"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="2" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
     </row>
     <row r="27" spans="3:15" ht="36" customHeight="1">
-      <c r="C27" s="2"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="2">
+      <c r="C27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="18">
         <v>29</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
     </row>
     <row r="28" spans="3:15" ht="36" customHeight="1">
-      <c r="C28" s="2"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="2" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
     </row>
     <row r="29" spans="3:15" ht="36" customHeight="1">
-      <c r="C29" s="2"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="2" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
     </row>
     <row r="30" spans="3:15" ht="36" customHeight="1">
-      <c r="C30" s="2"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="2" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="3:15" ht="36">
-      <c r="C31" s="2"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="2">
+      <c r="C31" s="18"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="18">
         <v>31</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="3:15" ht="72" customHeight="1">
-      <c r="C32" s="2"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="2" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="18" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
+      <c r="I32" s="18"/>
+      <c r="J32" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2" t="s">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
     </row>
     <row r="33" spans="3:15" ht="36">
-      <c r="C33" s="2"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
     </row>
     <row r="34" spans="3:15" ht="36">
-      <c r="C34" s="2"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="3" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2" t="s">
+      <c r="J34" s="19"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="3:15" ht="72">
-      <c r="C35" s="2"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="3" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="10"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="3:15" ht="36">
-      <c r="C36" s="2"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="3" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="12"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="9"/>
     </row>
     <row r="37" spans="3:15" ht="36">
-      <c r="C37" s="2"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="3" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="12"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="9"/>
     </row>
     <row r="38" spans="3:15" ht="36">
-      <c r="C38" s="2"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="3" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="12"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="9"/>
     </row>
     <row r="39" spans="3:15" ht="72">
-      <c r="C39" s="2"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="3" t="s">
+      <c r="C39" s="18"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="12"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="3:15" ht="36">
-      <c r="C40" s="2"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="3" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="12"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="3:15" ht="72">
-      <c r="C41" s="2"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="3" t="s">
+      <c r="C41" s="18"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="12"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="9"/>
     </row>
     <row r="42" spans="3:15" ht="36">
-      <c r="C42" s="2"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="3" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="14"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G31"/>
-    <mergeCell ref="D21:D42"/>
-    <mergeCell ref="E21:E42"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="C7:C42"/>
+    <mergeCell ref="F7:F22"/>
+    <mergeCell ref="G7:G22"/>
+    <mergeCell ref="K7:K15"/>
+    <mergeCell ref="L7:L15"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="H23:K31"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="O7:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="N7:N15"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
     <mergeCell ref="L35:O42"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="H32:I32"/>
@@ -1730,40 +1758,12 @@
     <mergeCell ref="H34:H42"/>
     <mergeCell ref="I34:I42"/>
     <mergeCell ref="J34:J42"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
     <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="O7:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="C7:C42"/>
-    <mergeCell ref="F7:F22"/>
-    <mergeCell ref="G7:G22"/>
-    <mergeCell ref="K7:K15"/>
-    <mergeCell ref="L7:L15"/>
-    <mergeCell ref="N7:N15"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="H23:K31"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G31"/>
+    <mergeCell ref="D21:D42"/>
+    <mergeCell ref="E21:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
